--- a/MoneyBufferSheet_v6.xlsx
+++ b/MoneyBufferSheet_v6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="504" windowWidth="23256" windowHeight="13176" tabRatio="623" activeTab="3"/>
+    <workbookView xWindow="1536" yWindow="504" windowWidth="23256" windowHeight="13176" tabRatio="623" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="How to" sheetId="99" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <definedName name="MoneyBuffer">Base!$N$5</definedName>
     <definedName name="MoneyModel">Base!$N$2</definedName>
     <definedName name="MonthVal">Base!$F$1</definedName>
+    <definedName name="NumDays">Base!$M$2</definedName>
     <definedName name="YearVal">Base!$H$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -38,22 +39,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>This is how much money buffer piled up so far!</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">This is how much money buffer piled up so far!
 </t>
         </r>
       </text>
@@ -114,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>Loan2</t>
   </si>
@@ -134,11 +125,8 @@
     <t>Days</t>
   </si>
   <si>
-    <t>Actually reserved</t>
-  </si>
-  <si>
     <t>*</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Amazon Prime</t>
@@ -175,7 +163,7 @@
   </si>
   <si>
     <t>NumDays</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>MonthVal</t>
@@ -214,249 +202,278 @@
     <t>Month:</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Patreon</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus Pass</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netflix</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🛠</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🐔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🛒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍎</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>💸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>💴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>✨</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🎁</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>☕</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍻</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚕</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>⛽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>✈</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🔥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>💊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚩🍊🍞🥕</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>🛒</t>
+  </si>
+  <si>
+    <t>⛽</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Reminders</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Something special</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Total spent this month:</t>
+  </si>
+  <si>
+    <t>Instruction on Github</t>
+  </si>
+  <si>
+    <t>https://github.com/blacksandbox/money-buffer</t>
+  </si>
+  <si>
+    <t>sandcubed@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please do not redistribute without permission. </t>
+  </si>
+  <si>
+    <t>Me and my pet succulent will be sad. :(</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money Buffer Sheet </t>
+  </si>
+  <si>
+    <t>Car</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Buffered</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember to take out trash</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer sale</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>💸</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Expense</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>➕</t>
+  </si>
+  <si>
+    <t>➖</t>
+  </si>
+  <si>
+    <t>💰 Usable fund</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Expense</t>
-  </si>
-  <si>
-    <t>Reservable</t>
-  </si>
-  <si>
-    <t>Free(Pool)</t>
-  </si>
-  <si>
-    <t>Model Buffer</t>
-  </si>
-  <si>
-    <t>Icons</t>
-  </si>
-  <si>
-    <t>Patreon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus Pass</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netflix</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🛠</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🐔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🛒</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍎</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>💸</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>💴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>✨</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🎁</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>☕</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🚕</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>⛽</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>✈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🔥</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>💊</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍰</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>🌱</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>♦ Subtract from Pool</t>
-  </si>
-  <si>
-    <t>♦ Get Pool</t>
-  </si>
-  <si>
-    <t>🚩🍊🍞🥕</t>
-  </si>
-  <si>
-    <t>★</t>
-  </si>
-  <si>
-    <t>🛒</t>
-  </si>
-  <si>
-    <t>⛽</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Reminders</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Something special</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Total spent this month:</t>
-  </si>
-  <si>
-    <t>Instruction on Github</t>
-  </si>
-  <si>
-    <t>https://github.com/blacksandbox/money-buffer</t>
-  </si>
-  <si>
-    <t>sandcubed@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please do not redistribute without permission. </t>
-  </si>
-  <si>
-    <t>Me and my pet succulent will be sad. :(</t>
-  </si>
-  <si>
-    <t>Created by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money Buffer Sheet </t>
-  </si>
-  <si>
-    <t>Car</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Buffered</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remember to take out trash</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>♦ Added to Pool</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>♦ Pool</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer sale</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>💸</t>
-  </si>
-  <si>
-    <t>v2.1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monthly Expense</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Suggested)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>(➕) Add</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>♦ Buffer Pool</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Daily Buffer</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>(➖) Subtract</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>➖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>♦ Calc Buffer Pool</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -464,8 +481,9 @@
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="78">
+  <fonts count="86">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,14 +578,6 @@
       <b/>
       <sz val="11"/>
       <color theme="6" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,13 +806,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -847,19 +850,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1011,8 +1001,102 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,8 +1127,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1232,33 +1340,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,213 +1550,250 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="26" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="49" fillId="3" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="41" fillId="3" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="47" fillId="3" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="40" fillId="3" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="44" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="43" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="57" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="71" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="17" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="17" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="74" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="54" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="75" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="79" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="81" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="84" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="84" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="78" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="81" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1584,8 +1905,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFCC0066"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFD5F9F8"/>
       <color rgb="FF9148C8"/>
       <color rgb="FF339966"/>
@@ -1649,6 +1970,50 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4297680" y="2766060"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1951,58 +2316,58 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="2:8" ht="23.4">
-      <c r="B2" s="92" t="s">
-        <v>83</v>
+      <c r="B2" s="84" t="s">
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="4.95" customHeight="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
     </row>
     <row r="5" spans="2:8" ht="21.6">
-      <c r="B5" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="87"/>
+      <c r="B5" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="87"/>
+      <c r="B6" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="79"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="91" t="s">
-        <v>80</v>
+      <c r="B8" s="83" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="91" t="s">
-        <v>81</v>
+      <c r="B9" s="83" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="21.6">
-      <c r="B11" s="89"/>
+      <c r="B11" s="81"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
@@ -2016,8 +2381,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2030,7 +2395,7 @@
     <col min="6" max="6" width="9.296875" customWidth="1"/>
     <col min="7" max="7" width="3.296875" customWidth="1"/>
     <col min="8" max="8" width="7.796875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="5.296875" customWidth="1"/>
     <col min="12" max="12" width="3.5" customWidth="1"/>
@@ -2044,1198 +2409,1222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.2" thickBot="1">
-      <c r="C1" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="36">
+      <c r="C1" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="35">
         <v>11</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="37">
+      <c r="G1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="36">
         <v>2017</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="7" t="s">
-        <v>90</v>
+      <c r="N1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="123" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17.399999999999999" customHeight="1">
-      <c r="M2" s="38">
+      <c r="M2" s="37">
         <f>VLOOKUP(F1,Data!B3:C14,2,TRUE)</f>
         <v>30</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="48">
         <v>50</v>
       </c>
-      <c r="Q2" s="43">
-        <f>J7+J16-IF(ISNUMBER(J12),J12,J11)</f>
+      <c r="Q2" s="122">
+        <f>J7-IF(ISNUMBER(J11),J11,J12)+IF(ISNUMBER(J15),J15,0)</f>
         <v>1500</v>
       </c>
-      <c r="S2" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="108"/>
-      <c r="U2" s="109"/>
+      <c r="S2" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="99"/>
+      <c r="U2" s="100"/>
     </row>
     <row r="3" spans="1:24" ht="17.399999999999999" customHeight="1">
-      <c r="B3" s="91" t="s">
-        <v>64</v>
+      <c r="B3" s="83" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="106"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="112"/>
+      <c r="I3" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="136"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="103"/>
     </row>
     <row r="4" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="98" t="str">
+      <c r="A4" s="71"/>
+      <c r="B4" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="90" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="76">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="74">
+      <c r="E4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="67">
         <v>272.18</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="43">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="50">
+        <v>24</v>
+      </c>
+      <c r="J4" s="47">
         <v>4200</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="41" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="113">
+      <c r="S4" s="104">
         <f>IF(ISNUMBER(Q35),Q35,IF(ISNUMBER(Q34),Q34,IF(ISNUMBER(Q33),Q33,IF(ISNUMBER(Q32),Q32,"ERROR"))))</f>
         <v>0</v>
       </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="115"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
     </row>
     <row r="5" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="98" t="str">
+      <c r="A5" s="71"/>
+      <c r="B5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="90" t="str">
         <f t="shared" ref="C5:C14" si="0">MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="77">
         <v>9</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="68">
         <v>154.41</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>0</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="57" t="str">
+      <c r="I5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="54" t="str">
         <f>"$"&amp;SUM(F4:F17)</f>
         <v>$1916.63</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="99" t="str">
+      <c r="K5" s="45"/>
+      <c r="L5" s="91" t="str">
         <f>IF( AND(ISERROR(MATCH(ROW(FH1)+0,$D$4:$D$14,0))=FALSE, IF(ISERROR(MATCH(ROW(FH1)+0,$D$4:$D$14,0))=FALSE, INDEX($B$4:$B$14,MATCH(ROW(FH1)+0,$D$4:$D$14,0))="Ma",FALSE) ),"★",          IF(ISERROR(MATCH(ROW(FH1)+0,$U$9:$U$13,0))=FALSE,INDEX($S$9:$S$13,MATCH(ROW(FH1)+0,$U$9:$U$13,0)),"")         )</f>
         <v/>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f t="shared" ref="M5:M35" si="1">IF(MONTH(DATE(YearVal,MonthVal,ROW(FH1)))&gt;MonthVal,"",DATE(YearVal,MonthVal,ROW(FH1)))</f>
         <v>43040</v>
       </c>
-      <c r="N5" s="65" t="str">
+      <c r="N5" s="58" t="str">
         <f>"+$"&amp;ROUND(Q2/M2,2)</f>
         <v>+$50</v>
       </c>
-      <c r="O5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="46">
+      <c r="O5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="44">
         <f>Q2-IF(ISNUMBER(O5),O5,N5)</f>
         <v>1450</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="98" t="str">
+      <c r="A6" s="71"/>
+      <c r="B6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="77">
         <v>15</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="69">
         <v>67.89</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="43">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="99" t="str">
+        <v>102</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="91" t="str">
         <f t="shared" ref="L6:L35" si="2">IF( AND(ISERROR(MATCH(ROW(FH2)+0,$D$4:$D$14,0))=FALSE, IF(ISERROR(MATCH(ROW(FH2)+0,$D$4:$D$14,0))=FALSE, INDEX($B$4:$B$14,MATCH(ROW(FH2)+0,$D$4:$D$14,0))="Ma",FALSE) ),"★",          IF(ISERROR(MATCH(ROW(FH2)+0,$U$9:$U$13,0))=FALSE,INDEX($S$9:$S$13,MATCH(ROW(FH2)+0,$U$9:$U$13,0)),"")         )</f>
         <v>!</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <f t="shared" si="1"/>
         <v>43041</v>
       </c>
-      <c r="N6" s="64" t="str">
+      <c r="N6" s="57" t="str">
         <f t="shared" ref="N6:N35" si="3">IF(M6="","",MoneyBuffer)</f>
         <v>+$50</v>
       </c>
-      <c r="O6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="46">
+      <c r="O6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="44">
         <f t="shared" ref="Q6:Q35" si="4">IF(M6="","",Q5-IF(ISNUMBER(O6),O6,N6))</f>
         <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="98" t="str">
+      <c r="A7" s="71"/>
+      <c r="B7" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="77">
         <v>27</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="75">
+      <c r="E7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="68">
         <v>1055</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>0</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="58" t="str">
+      <c r="I7" s="46"/>
+      <c r="J7" s="124" t="str">
         <f>"$"&amp;(J4-J5)</f>
         <v>$2283.37</v>
       </c>
-      <c r="L7" s="99" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f t="shared" si="1"/>
         <v>43042</v>
       </c>
-      <c r="N7" s="54" t="str">
+      <c r="N7" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="46">
+      <c r="O7" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="44">
         <f t="shared" si="4"/>
         <v>1350</v>
       </c>
-      <c r="S7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="16"/>
+      <c r="S7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="98" t="str">
+      <c r="A8" s="71"/>
+      <c r="B8" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="77">
         <v>25</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="75">
+      <c r="E8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="68">
         <v>97.5</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="43">
         <v>0</v>
       </c>
-      <c r="L8" s="99" t="str">
+      <c r="L8" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <f t="shared" si="1"/>
         <v>43043</v>
       </c>
-      <c r="N8" s="54" t="str">
+      <c r="N8" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O8" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="46">
+      <c r="O8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="44">
         <f t="shared" si="4"/>
         <v>1300</v>
       </c>
-      <c r="S8" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="121"/>
-      <c r="V8" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="98" t="str">
+      <c r="S8" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="111"/>
+      <c r="V8" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="77">
         <v>18</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="77">
+      <c r="E9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="70">
         <v>85.65</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="43">
         <v>0</v>
       </c>
-      <c r="L9" s="99" t="str">
+      <c r="L9" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f t="shared" si="1"/>
         <v>43044</v>
       </c>
-      <c r="N9" s="54" t="str">
+      <c r="N9" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O9" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="46">
+      <c r="O9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="44">
         <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="S9" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="97" t="str">
+      <c r="S9" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="89" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="U9" s="95">
+      <c r="U9" s="87">
         <v>2</v>
       </c>
-      <c r="V9" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
+      <c r="V9" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
     </row>
     <row r="10" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="98" t="str">
+      <c r="A10" s="71"/>
+      <c r="B10" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="77">
         <v>16</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="68">
         <v>140</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="43">
         <v>0</v>
       </c>
-      <c r="I10" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="106"/>
-      <c r="L10" s="99" t="str">
+      <c r="I10" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="114"/>
+      <c r="L10" s="91" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <f t="shared" si="1"/>
         <v>43045</v>
       </c>
-      <c r="N10" s="54" t="str">
+      <c r="N10" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O10" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="46">
+      <c r="O10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="44">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="S10" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="97" t="str">
+      <c r="S10" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="89" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="U10" s="95">
+      <c r="U10" s="87">
         <v>6</v>
       </c>
-      <c r="V10" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
+      <c r="V10" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
     </row>
     <row r="11" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="98" t="str">
+      <c r="A11" s="71"/>
+      <c r="B11" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="77">
         <v>20</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="75">
+      <c r="E11" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="68">
         <v>11</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="43">
         <v>0</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="48" t="str">
-        <f>"$"&amp;((J7+J16)-(M2*N2))</f>
-        <v>$783.37</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="99" t="str">
+      <c r="I11" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f t="shared" si="1"/>
         <v>43046</v>
       </c>
-      <c r="N11" s="54" t="str">
+      <c r="N11" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O11" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="46">
+      <c r="O11" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="44">
         <f t="shared" si="4"/>
         <v>1150</v>
       </c>
-      <c r="S11" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="97" t="str">
+      <c r="S11" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="89" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="U11" s="95">
+      <c r="U11" s="87">
         <v>14</v>
       </c>
-      <c r="V11" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="98" t="str">
+      <c r="V11" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A12" s="71"/>
+      <c r="B12" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="77">
         <v>10</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="75">
+      <c r="E12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="68">
         <v>23</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="43">
         <v>0</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="99" t="str">
+        <v>94</v>
+      </c>
+      <c r="J12" s="120">
+        <f>(J7+IF(ISNUMBER(J15),J15,0))-(NumDays*BufferModel)</f>
+        <v>783.36999999999989</v>
+      </c>
+      <c r="L12" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <f t="shared" si="1"/>
         <v>43047</v>
       </c>
-      <c r="N12" s="54" t="str">
+      <c r="N12" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O12" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="46">
+      <c r="O12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="44">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="S12" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" s="97" t="str">
+      <c r="S12" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="89" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="U12" s="95">
+      <c r="U12" s="87">
         <v>15</v>
       </c>
-      <c r="V12" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.95" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="98" t="str">
+      <c r="V12" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A13" s="71"/>
+      <c r="B13" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D13" s="85">
-        <v>2</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="75">
+      <c r="D13" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="68">
         <v>5</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="43">
         <v>0</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="L13" s="99" t="str">
+      <c r="L13" s="91" t="str">
         <f t="shared" si="2"/>
         <v>★</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f t="shared" si="1"/>
         <v>43048</v>
       </c>
-      <c r="N13" s="54" t="str">
+      <c r="N13" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O13" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="46">
+      <c r="O13" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="44">
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="S13" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="97" t="str">
+      <c r="S13" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="89" t="str">
         <f>MonthVal&amp;"/"</f>
         <v>11/</v>
       </c>
-      <c r="U13" s="95">
+      <c r="U13" s="87">
         <v>16</v>
       </c>
-      <c r="V13" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
+      <c r="V13" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
     </row>
     <row r="14" spans="1:24" ht="16.95" customHeight="1">
-      <c r="B14" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="98" t="str">
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="90" t="str">
         <f t="shared" si="0"/>
         <v>11/</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="75">
+      <c r="D14" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="68">
         <v>5</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="43">
         <v>0</v>
       </c>
-      <c r="L14" s="99" t="str">
+      <c r="I14" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="118"/>
+      <c r="L14" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M14" s="33">
+        <f t="shared" si="1"/>
+        <v>43049</v>
+      </c>
+      <c r="N14" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="44">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="I15" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" s="33">
+        <f t="shared" si="1"/>
+        <v>43050</v>
+      </c>
+      <c r="N15" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="44">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="L16" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M16" s="33">
+        <f t="shared" si="1"/>
+        <v>43051</v>
+      </c>
+      <c r="N16" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="44">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="2:24" ht="16.95" customHeight="1">
+      <c r="I17" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="126"/>
+      <c r="L17" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" s="33">
+        <f t="shared" si="1"/>
+        <v>43052</v>
+      </c>
+      <c r="N17" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="44">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="V17" s="28"/>
+    </row>
+    <row r="18" spans="2:24" ht="16.95" customHeight="1">
+      <c r="H18" s="14"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128" t="str">
+        <f>J7</f>
+        <v>$2283.37</v>
+      </c>
+      <c r="L18" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" si="1"/>
+        <v>43053</v>
+      </c>
+      <c r="N18" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O18" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="44">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="2:24" ht="16.95" customHeight="1">
+      <c r="I19" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="130">
+        <f>IF(ISNUMBER(J11),J11,J12)</f>
+        <v>783.36999999999989</v>
+      </c>
+      <c r="L19" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="M19" s="33">
+        <f t="shared" si="1"/>
+        <v>43054</v>
+      </c>
+      <c r="N19" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="44">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="I20" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="132">
+        <f>IF(ISNUMBER(J15),J15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>$</v>
+      </c>
+      <c r="M20" s="33">
+        <f t="shared" si="1"/>
+        <v>43055</v>
+      </c>
+      <c r="N20" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="44">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="2:24" ht="16.95" customHeight="1" thickBot="1">
+      <c r="I21" s="133"/>
+      <c r="J21" s="134">
+        <f>Q2</f>
+        <v>1500</v>
+      </c>
+      <c r="L21" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M21" s="33">
+        <f t="shared" si="1"/>
+        <v>43056</v>
+      </c>
+      <c r="N21" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="44">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="V21" s="30"/>
+      <c r="X21" s="31"/>
+    </row>
+    <row r="22" spans="2:24" ht="16.95" customHeight="1">
+      <c r="C22" s="64"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" si="1"/>
+        <v>43057</v>
+      </c>
+      <c r="N22" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="44">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="16.95" customHeight="1">
+      <c r="B23" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="1"/>
+        <v>43058</v>
+      </c>
+      <c r="N23" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="44">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="16.95" customHeight="1">
+      <c r="B24" s="65">
+        <f ca="1">INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="E24" s="6"/>
+      <c r="L24" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="1"/>
+        <v>43059</v>
+      </c>
+      <c r="N24" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="44">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="16.95" customHeight="1">
+      <c r="B25" s="65">
+        <f ca="1">OFFSET(B24,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="3"/>
+      <c r="L25" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="1"/>
+        <v>43060</v>
+      </c>
+      <c r="N25" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="44">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L26" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="1"/>
+        <v>43061</v>
+      </c>
+      <c r="N26" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="44">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L27" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="1"/>
+        <v>43062</v>
+      </c>
+      <c r="N27" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="44">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L28" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="1"/>
+        <v>43063</v>
+      </c>
+      <c r="N28" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="44">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="16.95" customHeight="1">
+      <c r="K29" s="10"/>
+      <c r="L29" s="91" t="str">
         <f t="shared" si="2"/>
         <v>★</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M29" s="33">
         <f t="shared" si="1"/>
-        <v>43049</v>
-      </c>
-      <c r="N14" s="54" t="str">
+        <v>43064</v>
+      </c>
+      <c r="N29" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O14" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="46">
+      <c r="O29" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="44">
         <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.95" customHeight="1">
-      <c r="I15" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="106"/>
-      <c r="L15" s="99" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L30" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M15" s="34">
+      <c r="M30" s="33">
         <f t="shared" si="1"/>
-        <v>43050</v>
-      </c>
-      <c r="N15" s="54" t="str">
+        <v>43065</v>
+      </c>
+      <c r="N30" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="46">
+      <c r="O30" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="44">
         <f t="shared" si="4"/>
-        <v>950</v>
-      </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.95" customHeight="1">
-      <c r="I16" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="61">
-        <v>0</v>
-      </c>
-      <c r="L16" s="99" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L31" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>★</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="1"/>
+        <v>43066</v>
+      </c>
+      <c r="N31" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>+$50</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="44">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="16.95" customHeight="1">
+      <c r="L32" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M16" s="34">
+      <c r="M32" s="33">
         <f t="shared" si="1"/>
-        <v>43051</v>
-      </c>
-      <c r="N16" s="54" t="str">
+        <v>43067</v>
+      </c>
+      <c r="N32" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O16" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="46">
+      <c r="O32" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="44">
         <f t="shared" si="4"/>
-        <v>900</v>
-      </c>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28"/>
-    </row>
-    <row r="17" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L17" s="99" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18" ht="16.95" customHeight="1">
+      <c r="L33" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M17" s="34">
+      <c r="M33" s="33">
         <f t="shared" si="1"/>
-        <v>43052</v>
-      </c>
-      <c r="N17" s="54" t="str">
+        <v>43068</v>
+      </c>
+      <c r="N33" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O17" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="46">
+      <c r="O33" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="44">
         <f t="shared" si="4"/>
-        <v>850</v>
-      </c>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="2:24" ht="16.95" customHeight="1">
-      <c r="H18" s="15"/>
-      <c r="L18" s="99" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18" ht="16.95" customHeight="1">
+      <c r="L34" s="91" t="str">
         <f t="shared" si="2"/>
-        <v>o</v>
-      </c>
-      <c r="M18" s="34">
+        <v/>
+      </c>
+      <c r="M34" s="33">
         <f t="shared" si="1"/>
-        <v>43053</v>
-      </c>
-      <c r="N18" s="54" t="str">
+        <v>43069</v>
+      </c>
+      <c r="N34" s="51" t="str">
         <f t="shared" si="3"/>
         <v>+$50</v>
       </c>
-      <c r="O18" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="46">
+      <c r="O34" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="44">
         <f t="shared" si="4"/>
-        <v>800</v>
-      </c>
-      <c r="V18" s="28"/>
-    </row>
-    <row r="19" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L19" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" si="1"/>
-        <v>43054</v>
-      </c>
-      <c r="N19" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="46">
-        <f t="shared" si="4"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" ht="16.95" customHeight="1">
-      <c r="I20" s="81"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v>$</v>
-      </c>
-      <c r="M20" s="34">
-        <f t="shared" si="1"/>
-        <v>43055</v>
-      </c>
-      <c r="N20" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O20" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="46">
-        <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L21" s="99" t="str">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="8:18" ht="16.95" customHeight="1" thickBot="1">
+      <c r="L35" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M21" s="34">
-        <f t="shared" si="1"/>
-        <v>43056</v>
-      </c>
-      <c r="N21" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="46">
-        <f t="shared" si="4"/>
-        <v>650</v>
-      </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="V21" s="31"/>
-      <c r="X21" s="32"/>
-    </row>
-    <row r="22" spans="2:24" ht="16.95" customHeight="1">
-      <c r="C22" s="71"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M22" s="34">
-        <f t="shared" si="1"/>
-        <v>43057</v>
-      </c>
-      <c r="N22" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="46">
-        <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" ht="16.95" customHeight="1">
-      <c r="B23" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M23" s="34">
-        <f t="shared" si="1"/>
-        <v>43058</v>
-      </c>
-      <c r="N23" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O23" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="46">
-        <f t="shared" si="4"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" ht="16.95" customHeight="1">
-      <c r="B24" s="72">
-        <f ca="1">INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="E24" s="6"/>
-      <c r="L24" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M24" s="34">
-        <f t="shared" si="1"/>
-        <v>43059</v>
-      </c>
-      <c r="N24" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="46">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" ht="16.95" customHeight="1">
-      <c r="B25" s="72">
-        <f ca="1">OFFSET(B24,0,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="3"/>
-      <c r="L25" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M25" s="34">
-        <f t="shared" si="1"/>
-        <v>43060</v>
-      </c>
-      <c r="N25" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O25" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="46">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L26" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M26" s="34">
-        <f t="shared" si="1"/>
-        <v>43061</v>
-      </c>
-      <c r="N26" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O26" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="46">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L27" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="34">
-        <f t="shared" si="1"/>
-        <v>43062</v>
-      </c>
-      <c r="N27" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O27" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="46">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L28" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M28" s="34">
-        <f t="shared" si="1"/>
-        <v>43063</v>
-      </c>
-      <c r="N28" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O28" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="46">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="16.95" customHeight="1">
-      <c r="K29" s="11"/>
-      <c r="L29" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v>★</v>
-      </c>
-      <c r="M29" s="34">
-        <f t="shared" si="1"/>
-        <v>43064</v>
-      </c>
-      <c r="N29" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O29" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="46">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L30" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M30" s="34">
-        <f t="shared" si="1"/>
-        <v>43065</v>
-      </c>
-      <c r="N30" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O30" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="46">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L31" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v>★</v>
-      </c>
-      <c r="M31" s="34">
-        <f t="shared" si="1"/>
-        <v>43066</v>
-      </c>
-      <c r="N31" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O31" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="46">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" ht="16.95" customHeight="1">
-      <c r="L32" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M32" s="34">
-        <f t="shared" si="1"/>
-        <v>43067</v>
-      </c>
-      <c r="N32" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O32" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="46">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="8:18" ht="16.95" customHeight="1">
-      <c r="L33" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M33" s="34">
-        <f t="shared" si="1"/>
-        <v>43068</v>
-      </c>
-      <c r="N33" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O33" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="46">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="8:18" ht="16.95" customHeight="1">
-      <c r="L34" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M34" s="34">
-        <f t="shared" si="1"/>
-        <v>43069</v>
-      </c>
-      <c r="N34" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>+$50</v>
-      </c>
-      <c r="O34" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="8:18" ht="16.95" customHeight="1" thickBot="1">
-      <c r="L35" s="99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M35" s="34" t="str">
+      <c r="M35" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N35" s="54" t="str">
+      <c r="N35" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O35" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="55" t="str">
+      <c r="O35" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="52" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="8:18" ht="22.2" customHeight="1" thickTop="1">
-      <c r="H36" s="35"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="83">
+      <c r="H36" s="34"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="N36" s="109"/>
+      <c r="O36" s="75">
         <f>SUM(O5:O35)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="56"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="53"/>
     </row>
     <row r="37" spans="8:18">
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -3244,8 +3633,8 @@
     <row r="38" spans="8:18">
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="7"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3256,17 +3645,17 @@
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:I13"/>
     <mergeCell ref="T8:U8"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="V13:X13"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="B4:B14">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>INDIRECT(ADDRESS(ROW(),COLUMN()))="Ma"</formula>
@@ -3302,13 +3691,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ReserveAmt" prompt="Enter amount to reserve at the BEGINNING of this month. Enter asterisk ('*') to see the sheet with assumption you reserve all amount shown in &quot;Reservable&quot;." sqref="J12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ReserveAmt" prompt="Enter amount to reserve at the BEGINNING of this month. Enter asterisk ('*') to see the sheet with assumption you reserve all amount shown in &quot;Reservable&quot;." sqref="J11"/>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="YearVal" prompt="Enter the year you currently exist as a mortal" sqref="H1">
       <formula1>1000</formula1>
       <formula2>3000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BufferModel" prompt="Desired/goal size of daily money buffer. This value is used only if &quot;Actually Reserved&quot; is *. Use this see how much money is reservable at beginning of month." sqref="N2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AddedAmt" prompt="Whatever money that has been carried over to this month. It could be the remaining from last month, or any extra money that you want to add to the starting pool." sqref="J16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AddedAmt" prompt="Whatever money that has been carried over to this month. It could be the remaining from last month, or any extra money that you want to add to the starting pool." sqref="J15"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="incomeAmt" prompt="How loaded you are in a numerical representation." sqref="J4"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="ExpenseType" prompt="Au = &quot;Automatic&quot;. Ma =&quot;Manual&quot;. Select &quot;Au&quot; if this expense goes out automatically, &quot;Ma&quot; if you initate payment monthly yourself." sqref="C4:C14"/>
   </dataValidations>
@@ -3390,19 +3779,19 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -3413,13 +3802,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3430,16 +3819,16 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="66" t="s">
-        <v>45</v>
+      <c r="F4" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -3452,8 +3841,8 @@
       <c r="E5">
         <v>-1</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>44</v>
+      <c r="F5" s="60" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.2">
@@ -3463,8 +3852,8 @@
       <c r="C6">
         <v>30</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>53</v>
+      <c r="F6" s="61" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.2">
@@ -3474,11 +3863,11 @@
       <c r="C7">
         <v>31</v>
       </c>
-      <c r="F7" s="68" t="s">
-        <v>54</v>
+      <c r="F7" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -3488,8 +3877,8 @@
       <c r="C8">
         <v>30</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>55</v>
+      <c r="F8" s="59" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3499,8 +3888,8 @@
       <c r="C9">
         <v>31</v>
       </c>
-      <c r="F9" s="66" t="s">
-        <v>50</v>
+      <c r="F9" s="59" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3510,8 +3899,8 @@
       <c r="C10">
         <v>31</v>
       </c>
-      <c r="F10" s="69" t="s">
-        <v>48</v>
+      <c r="F10" s="62" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.2">
@@ -3521,8 +3910,8 @@
       <c r="C11">
         <v>30</v>
       </c>
-      <c r="F11" s="68" t="s">
-        <v>51</v>
+      <c r="F11" s="61" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="19.2">
@@ -3532,8 +3921,8 @@
       <c r="C12">
         <v>31</v>
       </c>
-      <c r="F12" s="70" t="s">
-        <v>58</v>
+      <c r="F12" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19.2">
@@ -3543,8 +3932,8 @@
       <c r="C13">
         <v>30</v>
       </c>
-      <c r="F13" s="68" t="s">
-        <v>46</v>
+      <c r="F13" s="61" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="19.2">
@@ -3554,42 +3943,42 @@
       <c r="C14">
         <v>31</v>
       </c>
-      <c r="F14" s="68" t="s">
-        <v>47</v>
+      <c r="F14" s="61" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="19.2">
-      <c r="F15" s="68" t="s">
-        <v>42</v>
+      <c r="F15" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="19.2">
-      <c r="F16" s="70" t="s">
-        <v>49</v>
+      <c r="F16" s="63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="19.2">
-      <c r="F17" s="68" t="s">
-        <v>98</v>
+      <c r="F17" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="19.2">
-      <c r="F18" s="68" t="s">
-        <v>56</v>
+      <c r="F18" s="61" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="19.2">
-      <c r="F19" s="70" t="s">
-        <v>57</v>
+      <c r="F19" s="63" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="6:6" ht="19.2">
-      <c r="F20" s="68" t="s">
-        <v>59</v>
+      <c r="F20" s="61" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3600,7 +3989,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3611,73 +4000,73 @@
     <col min="4" max="4" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="17" customFormat="1" ht="25.2">
-      <c r="B2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="18"/>
+    <row r="2" spans="2:6" s="16" customFormat="1" ht="25.2">
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:6">
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="22" t="s">
-        <v>12</v>
+      <c r="B4" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="23" t="s">
+      <c r="D5" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="13">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
